--- a/Proyecto Interno/Time-series/lista_retail_99_18.xlsx
+++ b/Proyecto Interno/Time-series/lista_retail_99_18.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,467 +577,418 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CREMA DE LECHE</t>
+          <t>CUCHUCO  DE MAÍZ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CUCHUCO  DE MAÍZ</t>
+          <t>CUCHUCO  DE TRIGO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CUCHUCO  DE TRIGO</t>
+          <t>CURUBAS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CURUBAS</t>
+          <t>FECULA DE MAÍZ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FECULA DE MAÍZ</t>
+          <t>FRÍJOL FRESCO</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FRÍJOL FRESCO</t>
+          <t>FRÍJOL SECO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FRÍJOL SECO</t>
+          <t>FRÍJOL TARRO</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FRÍJOL TARRO</t>
+          <t>GARBANZO</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GARBANZO</t>
+          <t>GUAYABAS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GUAYABAS</t>
+          <t>HABAS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HABAS</t>
+          <t>HABICHUELAS FRESCAS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HABICHUELAS FRESCAS</t>
+          <t>HARINA DE TRIGO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HAMBURGUESA</t>
+          <t>HARINA PRECOCIDA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HARINA DE TRIGO</t>
+          <t>HUEVOS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HARINA PRECOCIDA</t>
+          <t>LECHE EN POLVO ENTERA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HUEVOS</t>
+          <t>LECHE EN POLVO LACTANTE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JUGOS NATURALES</t>
+          <t>LECHE LARGA VIDA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KUMIS</t>
+          <t>LECHE PASTEURIZADA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LECHE EN POLVO ENTERA</t>
+          <t>LECHE PASTEURIZADA**</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LECHE EN POLVO LACTANTE</t>
+          <t>LECHUGA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LECHE LARGA VIDA</t>
+          <t>LENTEJAS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LECHE PASTEURIZADA</t>
+          <t>LIMONES</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LECHE PASTEURIZADA**</t>
+          <t>LULOS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LECHUGA</t>
+          <t>MAÍZ  PETO O TRILLADO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LENTEJAS</t>
+          <t>MANGOS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LIMONES</t>
+          <t>MANTECA VEGETAL</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LULOS</t>
+          <t>MANTEQUILLA</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MAÍZ  PETO O TRILLADO</t>
+          <t>MANZANAS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MANGOS</t>
+          <t>MARACUYA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MANTECA VEGETAL</t>
+          <t>MELOCOTONES O VARIEDAD DISPONI</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MANTEQUILLA</t>
+          <t>MELOCOTONES O VARIEDAD DISPONIBLE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MANZANAS</t>
+          <t>MORAS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MARACUYA</t>
+          <t>NARANJAS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MELOCOTONES O VARIEDAD DISPONI</t>
+          <t>ÑAME</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MELOCOTONES O VARIEDAD DISPONIBLE</t>
+          <t>PAN CORRIENTE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MORAS</t>
+          <t>PAN FRANCÉS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NARANJAS</t>
+          <t>PAN INTEGRAL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ÑAME</t>
+          <t>PANELA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PAN CORRIENTE</t>
+          <t>PAPA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PAN FRANCÉS</t>
+          <t>PAPA CRIOLLA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PAN INTEGRAL</t>
+          <t>PAPAYAS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PANELA</t>
+          <t>PASTA PARA SECO</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PAPA</t>
+          <t>PASTA PARA SOPA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PAPA CRIOLLA</t>
+          <t>PESCADO DE MAR</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PAPAS FRITAS</t>
+          <t>PESCADO DE RÍO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PAPAYAS</t>
+          <t>PESCADO ENLATADO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PASTA PARA SECO</t>
+          <t>PIÑAS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PASTA PARA SOPA</t>
+          <t>PLÁTANO</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PESCADO DE MAR</t>
+          <t>POLLO DESPRESADO POR LIBRA</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PESCADO DE RÍO</t>
+          <t>POLLO ENTERO POR LIBRA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PESCADO ENLATADO</t>
+          <t>QUESO CAMPESINO</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PIÑAS</t>
+          <t>REPOLLO</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PLÁTANO</t>
+          <t>SAL</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>POLLO DESPRESADO POR LIBRA</t>
+          <t>TOCINO</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>POLLO ENTERO POR LIBRA</t>
+          <t>TOMATE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>QUESO CAMPESINO</t>
+          <t>TOMATE DE ÁRBOL</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>REPOLLO</t>
+          <t>ULLUCOS</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>REVUELTO VERDE</t>
+          <t>VISCERAS - HIGADO</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>YUCA</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
-        <is>
-          <t>SUERO</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>TOCINO</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>TOMATE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>TOMATE DE ÁRBOL</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ULLUCOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>VISCERAS - HIGADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>YUCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
         <is>
           <t>ZANAHORIA</t>
         </is>
